--- a/Threshold/Fe/2His_1Asp/3.xlsx
+++ b/Threshold/Fe/2His_1Asp/3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Fe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA02EBD5-F8E6-4D73-8DD7-866A862A9B00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCCF913-D625-4D52-A254-E79A87177A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>

--- a/Threshold/Fe/2His_1Asp/3.xlsx
+++ b/Threshold/Fe/2His_1Asp/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCCF913-D625-4D52-A254-E79A87177A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BCBEE-1448-48B7-894C-D7C6966DD94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="2">
         <v>1.4</v>

--- a/Threshold/Fe/2His_1Asp/3.xlsx
+++ b/Threshold/Fe/2His_1Asp/3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BCBEE-1448-48B7-894C-D7C6966DD94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87348C22-91DA-454A-9536-CD6678CC8E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="10695" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.3</v>
       </c>
       <c r="C2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Fe/2His_1Asp/3.xlsx
+++ b/Threshold/Fe/2His_1Asp/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87348C22-91DA-454A-9536-CD6678CC8E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07DB17C-13D0-4CDC-8E2A-A6979E75805F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="10695" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Fe/2His_1Asp/3.xlsx
+++ b/Threshold/Fe/2His_1Asp/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07DB17C-13D0-4CDC-8E2A-A6979E75805F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D1674-4898-4D47-A1CB-D69A3163BAB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="10695" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>0.8</v>
       </c>
       <c r="C4" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Fe/2His_1Asp/3.xlsx
+++ b/Threshold/Fe/2His_1Asp/3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp_old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250414_Final\Fe\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D1674-4898-4D47-A1CB-D69A3163BAB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F885F781-0756-4466-B1A2-1F75F7CBC19F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="10695" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Fe/2His_1Asp/3.xlsx
+++ b/Threshold/Fe/2His_1Asp/3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250414_Final\Fe\2His_1Asp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F885F781-0756-4466-B1A2-1F75F7CBC19F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8259AC0-1591-4157-A075-3DA77DBB2701}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
